--- a/biology/Zoologie/Conus_ferrugineus/Conus_ferrugineus.xlsx
+++ b/biology/Zoologie/Conus_ferrugineus/Conus_ferrugineus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus ferrugineus est une espèce de mollusques marins de la famille des Conidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Conus ferrugineus a été décrite en 1792 par le conchyliologiste danois Christian Hee Hwass (1731-1803) dans une publication rédigée par le naturaliste français Jean-Guillaume Bruguière (1750-1798)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus ferrugineus a été décrite en 1792 par le conchyliologiste danois Christian Hee Hwass (1731-1803) dans une publication rédigée par le naturaliste français Jean-Guillaume Bruguière (1750-1798).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conus ferrugineus se rencontre dans la partie centrale ouest de l'océan Pacifique (Philippines, Nouvelle-Calédonie et Polynésie française)[2]. Ce mollusque est présent entre 5 et 50 m de profondeur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conus ferrugineus se rencontre dans la partie centrale ouest de l'océan Pacifique (Philippines, Nouvelle-Calédonie et Polynésie française). Ce mollusque est présent entre 5 et 50 m de profondeur.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La coquille de Conus ferrugineus mesure au maximum 75 mm[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coquille de Conus ferrugineus mesure au maximum 75 mm.
 </t>
         </is>
       </c>
@@ -604,15 +622,17 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (20 décembre 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (20 décembre 2022) :
 Conus (Rhizoconus) sophiae Brazier, 1876
 Conus (Strategoconus) ferrugineus Hwass, 1792
 Conus chenui Crosse, 1857
 Conus loebbeckeanus Weinkauff, 1873
 Conus mirmillo Crosse, 1865
-Rhizoconus ferrugineus (Hwass in Bruguière, 1792)[3]
+Rhizoconus ferrugineus (Hwass in Bruguière, 1792)
 Strategoconus (Vituliconus) ferrugineus (Hwass, 1792)
 Vituliconus ferrugineus (Hwass in Bruguière, 1792)</t>
         </is>
